--- a/src/test/resources/OrderValidation.xlsx
+++ b/src/test/resources/OrderValidation.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="xmlvalidation" r:id="rId5" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="xmlvalidation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>XMLvalidation</t>
   </si>
@@ -40,10 +35,7 @@
     <t>ordernumber</t>
   </si>
   <si>
-    <t>4000421263</t>
-  </si>
-  <si>
-    <t/>
+    <t>4400002130</t>
   </si>
   <si>
     <t>pass</t>
@@ -52,19 +44,19 @@
     <t>productname</t>
   </si>
   <si>
-    <t>Hydro Flask 21 oz Standard Mouth - Fog</t>
+    <t>PUR 11 Cup Pitcher</t>
   </si>
   <si>
     <t>product SKU</t>
   </si>
   <si>
-    <t>S21SX508</t>
+    <t>CR-1100C</t>
   </si>
   <si>
     <t>productprice</t>
   </si>
   <si>
-    <t>32.95</t>
+    <t>29.99</t>
   </si>
   <si>
     <t>product QTY</t>
@@ -79,53 +71,61 @@
     <t>customerEmail</t>
   </si>
   <si>
-    <t>mahendr.selenium@gmail.com</t>
+    <t>geetlashravani1@gmail.com</t>
   </si>
   <si>
     <t>Shiiping first name</t>
   </si>
   <si>
-    <t>mahendra</t>
+    <t>Shravani</t>
   </si>
   <si>
     <t>Shiiping last name</t>
   </si>
   <si>
-    <t>k</t>
+    <t>Kasarla</t>
   </si>
   <si>
     <t>Shiiping Street address</t>
   </si>
   <si>
-    <t>844 N Colony Rd</t>
+    <t>1110 Concord Ave Belmont MA 02478</t>
   </si>
   <si>
     <t xml:space="preserve">Shiiping City </t>
   </si>
   <si>
-    <t>Wallingford</t>
-  </si>
-  <si>
-    <t>Shiiping shipping zip code</t>
-  </si>
-  <si>
-    <t>06492</t>
+    <t>Concord</t>
+  </si>
+  <si>
+    <t>Shiiping phone number</t>
+  </si>
+  <si>
+    <t>9898989899</t>
+  </si>
+  <si>
+    <t>customer cart type</t>
   </si>
   <si>
     <t>VISA</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2025</t>
+    <t>card expir month</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>card expir year</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,20 +135,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -166,19 +164,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -195,50 +193,50 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -268,12 +266,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -312,171 +310,198 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -501,152 +526,152 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -655,38 +680,38 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>